--- a/Rescue_robot/Prototype/Robohood/part.xlsx
+++ b/Rescue_robot/Prototype/Robohood/part.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Project_X\Rescue_robot\Prototype\Robohood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BFA6D3-1A4F-4134-9C1E-361617A49EEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E714D0FC-A396-4AA9-966C-BC6A596A53B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9866" yWindow="4449" windowWidth="12351" windowHeight="6548" xr2:uid="{4F87B2CA-6BB6-441C-9DC3-D1E045E0933F}"/>
+    <workbookView xWindow="-23148" yWindow="6576" windowWidth="23256" windowHeight="12720" xr2:uid="{4F87B2CA-6BB6-441C-9DC3-D1E045E0933F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>part</t>
   </si>
@@ -45,21 +45,9 @@
     <t>lower body</t>
   </si>
   <si>
-    <t>8 h 44m</t>
-  </si>
-  <si>
-    <t>104g</t>
-  </si>
-  <si>
     <t>upper body</t>
   </si>
   <si>
-    <t>3h 54m</t>
-  </si>
-  <si>
-    <t>45g</t>
-  </si>
-  <si>
     <t>belt</t>
   </si>
   <si>
@@ -135,12 +123,6 @@
     <t>total time</t>
   </si>
   <si>
-    <t>524m</t>
-  </si>
-  <si>
-    <t>174m</t>
-  </si>
-  <si>
     <t>98m</t>
   </si>
   <si>
@@ -156,10 +138,13 @@
     <t>42m</t>
   </si>
   <si>
-    <t>1103m</t>
-  </si>
-  <si>
-    <t>18h 23m</t>
+    <t>track</t>
+  </si>
+  <si>
+    <t>breaker tool</t>
+  </si>
+  <si>
+    <t>breker gear</t>
   </si>
 </sst>
 </file>
@@ -511,15 +496,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F438BC6B-E3A5-4DED-B2B2-AB8A404C57C3}">
-  <dimension ref="A2:F14"/>
+  <dimension ref="A2:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -527,208 +512,203 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>5</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="E14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" t="s">
-        <v>41</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
